--- a/client/public/testdata.xlsx
+++ b/client/public/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdfai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Crars Decor\newData\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490962B6-967A-4B2F-B3A7-B9321C791A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1F62FB-C067-4EE5-9620-BAB17DFED002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{CB206022-95A6-43E5-8943-4BF66CE1A10D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>enrollment</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>faiz@gmail.com</t>
+  </si>
+  <si>
+    <t>enrolledBy</t>
+  </si>
+  <si>
+    <t>TS1</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F2B5BE-0B3C-4AFE-9C3C-2DD0FD60656E}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,9 +457,10 @@
     <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +482,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -498,40 +508,43 @@
       <c r="G2">
         <v>140425</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="D11" s="2"/>
     </row>
